--- a/medicine/Œil et vue/Vergence_(ophtalmologie)/Vergence_(ophtalmologie).xlsx
+++ b/medicine/Œil et vue/Vergence_(ophtalmologie)/Vergence_(ophtalmologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En ophtalmologie, et en optique physiologique, la  vergence est le mouvement des deux yeux lorsque leurs axes visuels ne sont pas parallèles[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En ophtalmologie, et en optique physiologique, la  vergence est le mouvement des deux yeux lorsque leurs axes visuels ne sont pas parallèles,.
 Si les axes se rapprochent, il y a convergence ; si les axes s'éloignent, il y a divergence.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Mesure de la vergence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le point d'intersection des deux lignes principales de visée est le point de fixation[3]; appelons-le 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le point d'intersection des deux lignes principales de visée est le point de fixation; appelons-le 
         A
     {\displaystyle A}
 . Soient 
@@ -534,7 +548,7 @@
           Q
             2
     {\displaystyle Q_{1}Q_{2}}
-. Alors la vergence est définie[4] comme l'inverse de la distance (ou plus précisément de la mesure algébrique) exprimée en mètres 
+. Alors la vergence est définie comme l'inverse de la distance (ou plus précisément de la mesure algébrique) exprimée en mètres 
               A
               M
             ¯
@@ -548,7 +562,7 @@
         =
     {\displaystyle {\overline {AM}}=}
  40 cm, la vergence vaut 2,5 am.
-Le point de fixation le plus éloigné (ou plus précisément celui qui correspond à la divergence maximale car en cas de divergence le point de fixation est virtuel) est le punctum remotum de convergence[5], qui coïncide habituellement avec le punctum remotum d'accommodation. Le point de fixation le plus proche est le punctum proximum de convergence, qui coïncide habituellement avec le punctum proximum d'accommodation.
+Le point de fixation le plus éloigné (ou plus précisément celui qui correspond à la divergence maximale car en cas de divergence le point de fixation est virtuel) est le punctum remotum de convergence, qui coïncide habituellement avec le punctum remotum d'accommodation. Le point de fixation le plus proche est le punctum proximum de convergence, qui coïncide habituellement avec le punctum proximum d'accommodation.
 </t>
         </is>
       </c>
@@ -577,7 +591,9 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La convergence des lignes de visée des yeux est réalisée grâce à le coordination des muscles oculomoteurs.
 </t>
@@ -608,9 +624,11 @@
           <t>Synergies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lever les yeux tend à favoriser la divergence des lignes de visée[5], alors que baisser les yeux favorise la convergence. Il y a également un lien, une synergie, entre vergence et accommodation, donc aussi avec les processus associés : dilatation/contraction des pupilles (mydriase/myosis), ouverture/fermeture des paupières.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lever les yeux tend à favoriser la divergence des lignes de visée, alors que baisser les yeux favorise la convergence. Il y a également un lien, une synergie, entre vergence et accommodation, donc aussi avec les processus associés : dilatation/contraction des pupilles (mydriase/myosis), ouverture/fermeture des paupières.
 </t>
         </is>
       </c>
@@ -641,10 +659,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Strabisme
-Le strabisme, ou hétérotropie[6] est une anomalie de la vision caractérisée par un défaut de convergence des axes visuels.
-Hétérophorie
-Tendance à la déviation des axes visuels lorsque le regard est au repos, qui disparaît s'il y a un point de fixation.
+          <t>Strabisme</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le strabisme, ou hétérotropie est une anomalie de la vision caractérisée par un défaut de convergence des axes visuels.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vergence_(ophtalmologie)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vergence_(ophtalmologie)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Anomalies de vergence</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hétérophorie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tendance à la déviation des axes visuels lorsque le regard est au repos, qui disparaît s'il y a un point de fixation.
 </t>
         </is>
       </c>
